--- a/data/mibirem_standard_data_templates/TemplateData_W.xlsx
+++ b/data/mibirem_standard_data_templates/TemplateData_W.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aseye001\Sona_Phd\MIBIREM\MiBiPreT_FieldSites\constructed-wetland\data\mibirem_standard_data_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A20769-8575-4DDE-ABE7-E164518A7E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB42DC17-FD37-41BB-8305-B32345267B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chemical analysis" sheetId="1" r:id="rId1"/>
@@ -440,136 +440,136 @@
     <t>total oil C10 - C40</t>
   </si>
   <si>
-    <t>INF(INF-1-4)</t>
-  </si>
-  <si>
     <t>INF</t>
   </si>
   <si>
-    <t>CW1_EFF(CW1_EFF-1-4)</t>
-  </si>
-  <si>
     <t>CW1_EFF</t>
   </si>
   <si>
-    <t>CW1MF01(CW1MF01-1-5)</t>
-  </si>
-  <si>
     <t>CW1MF01</t>
   </si>
   <si>
-    <t>CW1MF02(CW1MF02-1-5)</t>
-  </si>
-  <si>
     <t>CW1MF02</t>
   </si>
   <si>
-    <t>CW1MF05(CW1MF05-1-4)</t>
-  </si>
-  <si>
     <t>CW1MF05</t>
   </si>
   <si>
-    <t>CW1MF06(CW1MF06-1-4)</t>
-  </si>
-  <si>
     <t>CW1MF06</t>
   </si>
   <si>
-    <t>CW1MF09(CW1MF09-1-5)</t>
-  </si>
-  <si>
     <t>CW1MF09</t>
   </si>
   <si>
-    <t>CW1MF10(CW1MF10-1-5)</t>
-  </si>
-  <si>
     <t>CW1MF10</t>
   </si>
   <si>
-    <t>CW2_EFF(CW2_EFF-1-5)</t>
-  </si>
-  <si>
     <t>CW2_EFF</t>
   </si>
   <si>
-    <t>CW2MF01(CW2MF01-1-4)</t>
-  </si>
-  <si>
     <t>CW2MF01</t>
   </si>
   <si>
-    <t>CW2MF02(CW2MF02-1-4)</t>
-  </si>
-  <si>
     <t>CW2MF02</t>
   </si>
   <si>
-    <t>CW2MF05(CW2MF05-1-4)</t>
-  </si>
-  <si>
     <t>CW2MF05</t>
   </si>
   <si>
-    <t>CW2MF06(CW2MF06-1-4)</t>
-  </si>
-  <si>
     <t>CW2MF06</t>
   </si>
   <si>
-    <t>CW2MF09(CW2MF09-1-4)</t>
-  </si>
-  <si>
     <t>CW2MF09</t>
   </si>
   <si>
-    <t>CW2MF10(CW2MF10-1-4)</t>
-  </si>
-  <si>
     <t>CW2MF10</t>
   </si>
   <si>
-    <t>CW3_EFF(CW3_EFF-1-4)</t>
-  </si>
-  <si>
     <t>CW3_EFF</t>
   </si>
   <si>
-    <t>CW3MF01(CW3MF01-1-4)</t>
-  </si>
-  <si>
     <t>CW3MF01</t>
   </si>
   <si>
-    <t>CW3MF02(CW3MF02-1-4)</t>
-  </si>
-  <si>
     <t>CW3MF02</t>
   </si>
   <si>
-    <t>CW3MF05(CW3MF05-1-4)</t>
-  </si>
-  <si>
     <t>CW3MF05</t>
   </si>
   <si>
-    <t>CW3MF06(CW3MF06-1-4)</t>
-  </si>
-  <si>
     <t>CW3MF06</t>
   </si>
   <si>
-    <t>CW3MF09(CW3MF09-1-4)</t>
-  </si>
-  <si>
     <t>CW3MF09</t>
   </si>
   <si>
-    <t>CW3MF10(CW3MF10-1-4)</t>
-  </si>
-  <si>
     <t>CW3MF10</t>
+  </si>
+  <si>
+    <t>CW1MF05-1-4</t>
+  </si>
+  <si>
+    <t>CW1MF02-1-5</t>
+  </si>
+  <si>
+    <t>CW1MF01-1-5</t>
+  </si>
+  <si>
+    <t>CW1MF06-1-4</t>
+  </si>
+  <si>
+    <t>CW1MF09-1-5</t>
+  </si>
+  <si>
+    <t>CW1MF10-1-5</t>
+  </si>
+  <si>
+    <t>CW1_EFF-1-4</t>
+  </si>
+  <si>
+    <t>CW2MF01-1-4</t>
+  </si>
+  <si>
+    <t>CW2MF02-1-4</t>
+  </si>
+  <si>
+    <t>CW2MF05-1-4</t>
+  </si>
+  <si>
+    <t>CW2MF06-1-4</t>
+  </si>
+  <si>
+    <t>CW2MF09-1-4</t>
+  </si>
+  <si>
+    <t>CW2MF10-1-4</t>
+  </si>
+  <si>
+    <t>CW2_EFF-1-5</t>
+  </si>
+  <si>
+    <t>CW3MF01-1-4</t>
+  </si>
+  <si>
+    <t>CW3MF02-1-4</t>
+  </si>
+  <si>
+    <t>CW3MF05-1-4</t>
+  </si>
+  <si>
+    <t>CW3MF06-1-4</t>
+  </si>
+  <si>
+    <t>CW3MF09-1-4</t>
+  </si>
+  <si>
+    <t>CW3MF10-1-4</t>
+  </si>
+  <si>
+    <t>CW3_EFF-1-4</t>
+  </si>
+  <si>
+    <t>INF-1-4</t>
   </si>
 </sst>
 </file>
@@ -885,8 +885,8 @@
   </sheetPr>
   <dimension ref="A1:DM24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -898,7 +898,7 @@
     <col min="54" max="54" width="21.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:117" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:117" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:117" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:117" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>104</v>
       </c>
@@ -1604,12 +1604,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:117" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:117" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -1639,12 +1639,12 @@
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
     </row>
-    <row r="4" spans="1:117" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:117" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="BX4" s="1"/>
       <c r="BY4" s="1"/>
@@ -1654,12 +1654,12 @@
       <c r="CC4" s="1"/>
       <c r="CD4" s="1"/>
     </row>
-    <row r="5" spans="1:117" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:117" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BX5" s="1"/>
       <c r="BY5" s="1"/>
@@ -1671,146 +1671,146 @@
     </row>
     <row r="6" spans="1:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1818,7 +1818,7 @@
         <v>181</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -1833,8 +1833,8 @@
   </sheetPr>
   <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1842,7 +1842,7 @@
     <col min="3" max="3" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>104</v>
       </c>
@@ -1946,172 +1946,172 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2119,7 +2119,7 @@
         <v>181</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/data/mibirem_standard_data_templates/TemplateData_W.xlsx
+++ b/data/mibirem_standard_data_templates/TemplateData_W.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aseye001\Sona_Phd\MIBIREM\MiBiPreT_FieldSites\constructed-wetland\data\mibirem_standard_data_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB42DC17-FD37-41BB-8305-B32345267B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CBD3155-3EF5-4243-A75C-EEB2129ECB5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chemical analysis" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="206">
   <si>
     <t>Coding</t>
   </si>
@@ -570,13 +570,82 @@
   </si>
   <si>
     <t>INF-1-4</t>
+  </si>
+  <si>
+    <t>Sample description</t>
+  </si>
+  <si>
+    <t>NL_CW_W_41</t>
+  </si>
+  <si>
+    <t>NL_CW_W_42</t>
+  </si>
+  <si>
+    <t>NL_CW_W_43</t>
+  </si>
+  <si>
+    <t>NL_CW_W_44</t>
+  </si>
+  <si>
+    <t>NL_CW_W_45</t>
+  </si>
+  <si>
+    <t>NL_CW_W_46</t>
+  </si>
+  <si>
+    <t>NL_CW_W_47</t>
+  </si>
+  <si>
+    <t>NL_CW_W_48</t>
+  </si>
+  <si>
+    <t>NL_CW_W_49</t>
+  </si>
+  <si>
+    <t>NL_CW_W_410</t>
+  </si>
+  <si>
+    <t>NL_CW_W_411</t>
+  </si>
+  <si>
+    <t>NL_CW_W_412</t>
+  </si>
+  <si>
+    <t>NL_CW_W_413</t>
+  </si>
+  <si>
+    <t>NL_CW_W_414</t>
+  </si>
+  <si>
+    <t>NL_CW_W_415</t>
+  </si>
+  <si>
+    <t>NL_CW_W_416</t>
+  </si>
+  <si>
+    <t>NL_CW_W_417</t>
+  </si>
+  <si>
+    <t>NL_CW_W_418</t>
+  </si>
+  <si>
+    <t>NL_CW_W_419</t>
+  </si>
+  <si>
+    <t>NL_CW_W_420</t>
+  </si>
+  <si>
+    <t>NL_CW_W_421</t>
+  </si>
+  <si>
+    <t>NL_CW_W_422</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -621,6 +690,17 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -648,7 +728,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -664,6 +744,10 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -883,376 +967,381 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:DM24"/>
+  <dimension ref="A1:DN25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="31" max="31" width="22.109375" customWidth="1"/>
-    <col min="42" max="47" width="27" customWidth="1"/>
-    <col min="52" max="52" width="12.6640625" customWidth="1"/>
-    <col min="53" max="53" width="24.21875" customWidth="1"/>
-    <col min="54" max="54" width="21.21875" customWidth="1"/>
+    <col min="1" max="1" width="15.21875" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="32" max="32" width="22.109375" customWidth="1"/>
+    <col min="43" max="48" width="27" customWidth="1"/>
+    <col min="53" max="53" width="12.6640625" customWidth="1"/>
+    <col min="54" max="54" width="24.21875" customWidth="1"/>
+    <col min="55" max="55" width="21.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:117" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:118" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AR1" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="AR1" s="6" t="s">
+      <c r="AS1" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="AS1" s="6" t="s">
+      <c r="AT1" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="AT1" s="6" t="s">
+      <c r="AU1" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="AU1" s="6" t="s">
+      <c r="AV1" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="BA1" s="4" t="s">
+      <c r="BB1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="BB1" s="4" t="s">
+      <c r="BC1" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="BM1" s="3" t="s">
+      <c r="BN1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="BN1" s="3" t="s">
+      <c r="BO1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="BO1" s="3" t="s">
+      <c r="BP1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="BP1" s="3" t="s">
+      <c r="BQ1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="BQ1" s="3" t="s">
+      <c r="BR1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="BR1" s="3" t="s">
+      <c r="BS1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="BS1" s="3" t="s">
+      <c r="BT1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="CI1" s="1" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="CJ1" s="1" t="s">
+      <c r="CK1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="CK1" s="1" t="s">
+      <c r="CL1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="CL1" s="1" t="s">
+      <c r="CM1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="CM1" s="1" t="s">
+      <c r="CN1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="CN1" s="1" t="s">
+      <c r="CO1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="CO1" s="1" t="s">
+      <c r="CP1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="CP1" s="1" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="CQ1" s="1" t="s">
+      <c r="CR1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="CR1" s="1" t="s">
+      <c r="CS1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="CS1" s="1" t="s">
+      <c r="CT1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="CT1" s="1" t="s">
+      <c r="CU1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="CU1" s="1" t="s">
+      <c r="CV1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="CV1" s="1" t="s">
+      <c r="CW1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="CW1" s="2" t="s">
+      <c r="CX1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="CX1" s="1" t="s">
+      <c r="CY1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="CY1" s="1" t="s">
+      <c r="CZ1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="CZ1" s="1" t="s">
+      <c r="DA1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="DA1" s="1" t="s">
+      <c r="DB1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="DB1" s="1" t="s">
+      <c r="DC1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="DC1" s="1" t="s">
+      <c r="DD1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="DD1" s="1" t="s">
+      <c r="DE1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="DE1" s="1" t="s">
+      <c r="DF1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="DF1" s="1" t="s">
+      <c r="DG1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="DG1" s="1" t="s">
+      <c r="DH1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="DH1" s="1" t="s">
+      <c r="DI1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="DI1" s="1" t="s">
+      <c r="DJ1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="DJ1" s="1" t="s">
+      <c r="DK1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="DK1" s="1" t="s">
+      <c r="DL1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="DL1" s="1" t="s">
+      <c r="DM1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="DM1" s="1" t="s">
+      <c r="DN1" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:117" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:118" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>104</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1265,7 +1354,7 @@
         <v>104</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>105</v>
@@ -1274,10 +1363,10 @@
         <v>105</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>105</v>
@@ -1319,7 +1408,7 @@
         <v>105</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>106</v>
@@ -1378,10 +1467,10 @@
       <c r="AP2" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AQ2" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="AR2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AR2" s="5" t="s">
         <v>106</v>
       </c>
       <c r="AS2" s="1" t="s">
@@ -1393,10 +1482,10 @@
       <c r="AU2" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AV2" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="AW2" s="1" t="s">
+      <c r="AV2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AW2" s="5" t="s">
         <v>106</v>
       </c>
       <c r="AX2" s="1" t="s">
@@ -1603,15 +1692,20 @@
       <c r="DM2" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="3" spans="1:117" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="DN2" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:118" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -1638,190 +1732,258 @@
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
-    </row>
-    <row r="4" spans="1:117" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="AF3" s="1"/>
+    </row>
+    <row r="4" spans="1:118" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="BX4" s="1"/>
       <c r="BY4" s="1"/>
       <c r="BZ4" s="1"/>
       <c r="CA4" s="1"/>
       <c r="CB4" s="1"/>
       <c r="CC4" s="1"/>
       <c r="CD4" s="1"/>
-    </row>
-    <row r="5" spans="1:117" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="CE4" s="1"/>
+    </row>
+    <row r="5" spans="1:118" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="BX5" s="1"/>
       <c r="BY5" s="1"/>
       <c r="BZ5" s="1"/>
       <c r="CA5" s="1"/>
       <c r="CB5" s="1"/>
       <c r="CC5" s="1"/>
       <c r="CD5" s="1"/>
-    </row>
-    <row r="6" spans="1:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="CE5" s="1"/>
+    </row>
+    <row r="6" spans="1:118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+    </row>
+    <row r="7" spans="1:118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+    </row>
+    <row r="8" spans="1:118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+    </row>
+    <row r="9" spans="1:118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="10" spans="1:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+    </row>
+    <row r="10" spans="1:118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11" spans="1:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+    </row>
+    <row r="11" spans="1:118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="12" spans="1:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+    </row>
+    <row r="12" spans="1:118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="13" spans="1:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+    </row>
+    <row r="13" spans="1:118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="1:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+    </row>
+    <row r="14" spans="1:118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="15" spans="1:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+    </row>
+    <row r="15" spans="1:118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="16" spans="1:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+    </row>
+    <row r="16" spans="1:118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>154</v>
-      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1831,295 +1993,368 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:R24"/>
+  <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.77734375" customWidth="1"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>104</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
-        <v>104</v>
-      </c>
+      <c r="E2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
         <v>104</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-      <c r="P2" s="1" t="s">
-        <v>104</v>
-      </c>
+      <c r="P2" s="1"/>
       <c r="Q2" s="1" t="s">
         <v>104</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>182</v>
+      <c r="S2" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>184</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>163</v>
+      <c r="C3" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>185</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>162</v>
+      <c r="C4" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>186</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>161</v>
+      <c r="C5" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>187</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>164</v>
+      <c r="C6" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>188</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>165</v>
+      <c r="C7" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>189</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>166</v>
+      <c r="C8" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>190</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>167</v>
+      <c r="C9" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>191</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>168</v>
+      <c r="C10" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>192</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>169</v>
+      <c r="C11" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>193</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>170</v>
+      <c r="C12" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>194</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>171</v>
+      <c r="C13" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>195</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>172</v>
+      <c r="C14" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>196</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>173</v>
+      <c r="C15" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>197</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>174</v>
+      <c r="C16" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>198</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>175</v>
+      <c r="C17" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>199</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>176</v>
+      <c r="C18" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>200</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>177</v>
+      <c r="C19" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>201</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>178</v>
+      <c r="C20" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>202</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>179</v>
+      <c r="C21" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>203</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>180</v>
+      <c r="C22" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>204</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>181</v>
+      <c r="C23" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>205</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>154</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
